--- a/Chanages.xlsx
+++ b/Chanages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Majadly\Documents\GitHub\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDBDCBF-58A4-42EC-987B-FA6D01F2D5F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786A382-6D7F-433E-BC11-2F4309E32076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{0F7B486E-35F0-4C27-9ABE-AE12665801A3}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>IF(J2=" Male",0,IF(J2=" ?"," ?",1))</t>
   </si>
   <si>
-    <t>IF(O2=" &lt;=50K",0,IF(O2=" ?"," ?",1))</t>
-  </si>
-  <si>
     <t>Race Column</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>government is same (state, local, or federal). Gov is gov</t>
+  </si>
+  <si>
+    <t>IF(O2=" &lt;=50K",1,IF(O2=" ?"," ?",0))</t>
   </si>
 </sst>
 </file>
@@ -261,6 +261,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -275,7 +276,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -368,11 +368,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3E8D97B6-5B7E-4E00-89FE-2F2586F63189}" name="Table6" displayName="Table6" ref="A32:B42" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3E8D97B6-5B7E-4E00-89FE-2F2586F63189}" name="Table6" displayName="Table6" ref="A32:B42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A32:B42" xr:uid="{92C43BA5-4558-4481-A5E0-F161AB54CD89}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2757AFD2-F578-43A1-822E-2E1057B5BD75}" name="marital_status column" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4D24C60B-DBE4-4697-967B-00AD34EC57F7}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{2757AFD2-F578-43A1-822E-2E1057B5BD75}" name="marital_status column" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4D24C60B-DBE4-4697-967B-00AD34EC57F7}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF11C14B-CC1B-4179-BE2C-4AE521465167}">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,10 +770,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,10 +805,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,15 +856,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -915,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,31 +923,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,15 +1014,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2">
         <v>3</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,12 +1089,12 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
